--- a/sub-22ML/psych_RFT_COTE_sub-22ML.xlsx
+++ b/sub-22ML/psych_RFT_COTE_sub-22ML.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-22ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\sub-22ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{C1A3E21D-EF41-4D0C-9F6D-7A66CB173A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C7D1F2-4849-4DDC-A1A6-E50FCC353938}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97817905-4555-40C0-A41D-64F28BD4626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,16 +1745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>720725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>720725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/sub-22ML/psych_RFT_COTE_sub-22ML.xlsx
+++ b/sub-22ML/psych_RFT_COTE_sub-22ML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\sub-22ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-22ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97817905-4555-40C0-A41D-64F28BD4626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{97817905-4555-40C0-A41D-64F28BD4626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{226B66F0-7B1E-4E18-8E1F-29D195F36C2A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="74">
   <si>
     <t>Essai,Cond_0 -7/-45,Cond_1 -4/-40,Cond_2 -2/-35,Cond_3 -1/-30,Cond_4 0/-25,Cond_5 1/-20,Cond_6 2/-15,Cond_7 4/-10,Cond_8 7/-5,Cond_9 -7/0,Cond_10 -4/5,Cond_11 -2/10,Cond_12 -1/15,Cond_13 0/20,Cond_14 1/25,Cond_15 2/30,Cond_16 4/35,Cond_17 7/40</t>
   </si>
@@ -195,6 +195,78 @@
   </si>
   <si>
     <t>rouge : barre est à 0°</t>
+  </si>
+  <si>
+    <t>cond -7/-45</t>
+  </si>
+  <si>
+    <t>Cond -4/-40</t>
+  </si>
+  <si>
+    <t>Cond -2/-35</t>
+  </si>
+  <si>
+    <t>Cond -1/-30</t>
+  </si>
+  <si>
+    <t>Cond 0/-25</t>
+  </si>
+  <si>
+    <t>Cond 1/-20</t>
+  </si>
+  <si>
+    <t>Cond 2/-15</t>
+  </si>
+  <si>
+    <t>Cond 4/-10</t>
+  </si>
+  <si>
+    <t>Cond 7/-5</t>
+  </si>
+  <si>
+    <t>Cond -7/0</t>
+  </si>
+  <si>
+    <t>Cond -4/5</t>
+  </si>
+  <si>
+    <t>Cond -2/10</t>
+  </si>
+  <si>
+    <t>Cond -1/15</t>
+  </si>
+  <si>
+    <t>Cond 0/20</t>
+  </si>
+  <si>
+    <t>Cond 1/25</t>
+  </si>
+  <si>
+    <t>Cond 2/30</t>
+  </si>
+  <si>
+    <t>Cond 4/35</t>
+  </si>
+  <si>
+    <t>Cond 7/40</t>
+  </si>
+  <si>
+    <t>Carré G</t>
+  </si>
+  <si>
+    <t>ligne Gauche</t>
+  </si>
+  <si>
+    <t>ligne Droite</t>
+  </si>
+  <si>
+    <t>Carré Droite</t>
+  </si>
+  <si>
+    <t>somme</t>
+  </si>
+  <si>
+    <t>TOTAL erreur</t>
   </si>
 </sst>
 </file>
@@ -337,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +595,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -685,6 +763,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -730,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -740,6 +898,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,7 +1132,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$14:$S$14</c:f>
+              <c:f>Feuil1!$B$15:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1746,15 +1918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>720725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>760639</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>720725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480785</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2137,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2988,861 +3160,1047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E63B04-5E6F-456B-836C-3E61865320E2}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1" s="3">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3">
-        <v>0</v>
-      </c>
-      <c r="O1" s="3">
-        <v>0</v>
-      </c>
-      <c r="P1" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>1</v>
-      </c>
-      <c r="R1" s="3">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1</v>
-      </c>
-      <c r="S2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14">
-        <f>AVERAGE(B1:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:S14" si="0">AVERAGE(C1:C13)</f>
+      <c r="B15">
+        <f>AVERAGE(B2:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:S15" si="0">AVERAGE(C2:C14)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B2:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:S16" si="1">SUM(C2:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f>13-(SUM(F2:F14))</f>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f>13-(SUM(G2:G14))</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>13-(SUM(H2:H14))</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>13-(SUM(I2:I14))</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>13-(SUM(J2:J14))</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f>13-(SUM(P2:P14))</f>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <f>13-(SUM(Q2:Q14))</f>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f>13-(SUM(R2:R14))</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>13-(SUM(S2:S14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>SUM(B16:S16)</f>
+        <v>21</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19">
+        <f>AVERAGE(B15:E15)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C21" s="20">
+        <f>1-(AVERAGE(G15:J15))</f>
+        <v>3.8461538461538436E-2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>AVERAGE(L15:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <f>1-(AVERAGE(P15:S15))</f>
+        <v>0.19230769230769229</v>
       </c>
     </row>
   </sheetData>
